--- a/monografia/tabela Equivalencia monografia.xlsx
+++ b/monografia/tabela Equivalencia monografia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DREAM03\Documents\GitHub\weatherSVG\monografia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DREAM03\Documents\GitHub\weather\monografia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,14 +653,14 @@
   <dimension ref="A1:L150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="82.42578125" bestFit="1" customWidth="1"/>
